--- a/079_计算跨年重叠时间段的时长问题/加难度的题目.xlsx
+++ b/079_计算跨年重叠时间段的时长问题/加难度的题目.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2000106552\Desktop\胖里的 SQL 题目\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2000106552\Desktop\计算跨年重叠时间段的时长问题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B915D4A-37CF-4467-8B69-66ED8A0F7A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A5AA8A-7EEF-46A0-8038-0849DD03F778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12090" yWindow="1305" windowWidth="15705" windowHeight="15570" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="可导出版本" sheetId="2" r:id="rId1"/>
     <sheet name="处理后" sheetId="4" r:id="rId2"/>
     <sheet name="构造与试算" sheetId="1" r:id="rId3"/>
-    <sheet name="格式转换" sheetId="3" r:id="rId4"/>
+    <sheet name="SQL 代码（待改进）" sheetId="5" r:id="rId4"/>
+    <sheet name="格式转换" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="146">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2773,6 +2774,139 @@
       </rPr>
       <t xml:space="preserve"> 列之间的时间间隔，并以 "X天X小时X分X秒" 的形式呈现。</t>
     </r>
+  </si>
+  <si>
+    <t>WITH a_t AS (</t>
+  </si>
+  <si>
+    <t>SELECT</t>
+  </si>
+  <si>
+    <t>跨年重复时间段的时长问题."ID",</t>
+  </si>
+  <si>
+    <t>跨年重复时间段的时长问题."year",</t>
+  </si>
+  <si>
+    <t>跨年重复时间段的时长问题.start_time,</t>
+  </si>
+  <si>
+    <t>跨年重复时间段的时长问题.end_time,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAX ( "跨年重复时间段的时长问题".end_time ) OVER ( PARTITION BY "跨年重复时间段的时长问题"."ID", "跨年重复时间段的时长问题"."year" ROWS BETWEEN UNBOUNDED PRECEDING AND 1 PRECEDING ) AS std_edt </t>
+  </si>
+  <si>
+    <t>FROM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跨年重复时间段的时长问题 </t>
+  </si>
+  <si>
+    <t>) ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-- </t>
+  </si>
+  <si>
+    <t>步骤二：重复部分的判断及处理</t>
+  </si>
+  <si>
+    <t>b_t AS (</t>
+  </si>
+  <si>
+    <t>SELECT a_t."ID",a_t."year",</t>
+  </si>
+  <si>
+    <t>CASE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHEN std_edt IS NULL THEN start_time </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHEN </t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATE_PART( 'day', start_time :: TIMESTAMP - std_edt :: TIMESTAMP ) * 24 * 60 * 60 + DATE_PART( 'hour', start_time :: TIMESTAMP - std_edt :: TIMESTAMP ) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * 60 * 60 + DATE_PART( 'minute', start_time :: TIMESTAMP - std_edt :: TIMESTAMP ) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * 60 + DATE_PART( 'second', start_time :: TIMESTAMP - std_edt :: TIMESTAMP ))&gt; 0 THEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">start_time ELSE std_edt :: TIMESTAMP + '1 day' </t>
+  </si>
+  <si>
+    <t>END AS start_time,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end_time </t>
+  </si>
+  <si>
+    <t>FROM a_t</t>
+  </si>
+  <si>
+    <t>c_t AS ( SELECT b_t."ID",b_t."year",start_time,end_time,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATE_PART( 'day',end_time :: TIMESTAMP - start_time :: TIMESTAMP ) * 24 * 60 * 60 + DATE_PART( 'hour', end_time :: TIMESTAMP - start_time :: TIMESTAMP ) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * 60 * 60 + DATE_PART( 'minute', end_time :: TIMESTAMP - start_time :: TIMESTAMP ) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * 60 + DATE_PART( 'second', end_time:: TIMESTAMP - start_time :: TIMESTAMP )) AS diff</t>
+  </si>
+  <si>
+    <t>FROM b_t</t>
+  </si>
+  <si>
+    <t>d_t AS (</t>
+  </si>
+  <si>
+    <t>SELECT c_t."ID",c_t."year",SUM(CASE WHEN diff &gt; 0 THEN diff + 60 * 60 * 24 ELSE NULL END) AS All_seconds</t>
+  </si>
+  <si>
+    <t>FROM c_t</t>
+  </si>
+  <si>
+    <t>GROUP BY c_t."ID",c_t."year"</t>
+  </si>
+  <si>
+    <t>e_t AS (</t>
+  </si>
+  <si>
+    <t>SELECT d_t."ID",d_t."year",All_seconds,All_seconds::INT / (24 * 60 * 60) AS days,</t>
+  </si>
+  <si>
+    <t>(All_seconds::INT / (60 * 60)) % 24 AS hours,</t>
+  </si>
+  <si>
+    <t>(All_seconds::INT / 60 % 60) AS minutes,</t>
+  </si>
+  <si>
+    <t>(All_seconds::INT % 60) AS seconds</t>
+  </si>
+  <si>
+    <t>FROM d_t</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>SELECT * FROM e_t</t>
+  </si>
+  <si>
+    <t>步骤一：比较基准点的获取</t>
+  </si>
+  <si>
+    <t>步骤三:计算结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3077,6 +3211,55 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>666152</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>180794</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6B968BC-9AC6-4B35-84EA-D0EC9C5ECB65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="11582400"/>
+          <a:ext cx="4780952" cy="1447619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4078,7 +4261,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="G4" workbookViewId="0">
       <selection activeCell="H37" sqref="H37:K47"/>
     </sheetView>
   </sheetViews>
@@ -4601,11 +4784,273 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A25490E-C0C7-4047-AC43-425F4B4DD99A}">
+  <dimension ref="B4:F62"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="4" spans="2:5">
+      <c r="B4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="D7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="E8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="E9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="E10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="E11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="E12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="D13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="D14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="C15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="D22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="D23" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="E24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="F25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="E26" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="E27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="E28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="D29" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="D30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="C31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="C32" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="F38" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="E39" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="E40" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6">
+      <c r="B47" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="B48" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B07DAA-7081-4D3E-9F7E-519C495F6DA2}">
   <dimension ref="A1:A138"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:A138"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5208,6 +5653,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>